--- a/WppRegPack/TestResource/SysTest/DS_IND_SYSTEST.xlsx
+++ b/WppRegPack/TestResource/SysTest/DS_IND_SYSTEST.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\Master\GlobalTestPack\WppRegPack\TestResource\SysTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegPack\TestResource\SysTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="12" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="377">
   <si>
     <t>Description</t>
   </si>
@@ -681,9 +681,6 @@
     <t>Language</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Job Number</t>
   </si>
   <si>
@@ -1164,9 +1161,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>1707106967</t>
-  </si>
-  <si>
     <t>JIRA Opco Name</t>
   </si>
   <si>
@@ -1177,6 +1171,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ogilvy - 1285 - Ogilvy Fashion and Lifestyle SH </t>
+  </si>
+  <si>
+    <t>1707106968</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1459,9 +1456,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1501,6 +1496,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1782,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1795,35 +1791,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="50">
+      <c r="B1" s="48">
         <v>1707</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="30" t="s">
+      <c r="B2" s="46" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="47" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A4" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1849,23 +1837,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="46" t="s">
-        <v>239</v>
+      <c r="A2" s="44" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="46" t="s">
-        <v>238</v>
+      <c r="A4" s="44" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1889,112 +1877,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="42" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2019,47 +2007,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="38" t="s">
-        <v>216</v>
+      <c r="A4" s="36" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="36" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2238,17 +2226,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2263,47 +2251,47 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2313,72 +2301,72 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2447,16 +2435,16 @@
         <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>103</v>
@@ -2468,16 +2456,16 @@
         <v>105</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="M1" s="13" t="s">
         <v>107</v>
@@ -2489,16 +2477,16 @@
         <v>109</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q1" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>346</v>
       </c>
       <c r="T1" s="13" t="s">
         <v>111</v>
@@ -2510,16 +2498,16 @@
         <v>113</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="X1" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>354</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>355</v>
       </c>
       <c r="AA1" s="13" t="s">
         <v>115</v>
@@ -2531,16 +2519,16 @@
         <v>117</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AE1" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF1" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>357</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>358</v>
       </c>
       <c r="AH1" s="13" t="s">
         <v>119</v>
@@ -2552,16 +2540,16 @@
         <v>121</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL1" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="AM1" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>361</v>
       </c>
       <c r="AO1" s="13" t="s">
         <v>123</v>
@@ -2573,16 +2561,16 @@
         <v>125</v>
       </c>
       <c r="AR1" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AS1" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AT1" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>364</v>
       </c>
       <c r="AV1" s="13" t="s">
         <v>127</v>
@@ -2594,16 +2582,16 @@
         <v>129</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AZ1" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="BA1" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BB1" s="13" t="s">
         <v>366</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>367</v>
       </c>
       <c r="BC1" s="13" t="s">
         <v>131</v>
@@ -2615,16 +2603,16 @@
         <v>133</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BG1" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="BH1" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BI1" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="BI1" s="13" t="s">
-        <v>370</v>
       </c>
       <c r="BJ1" s="13" t="s">
         <v>135</v>
@@ -2636,16 +2624,16 @@
         <v>137</v>
       </c>
       <c r="BM1" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BN1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="BO1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BP1" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="BQ1" s="13" t="s">
         <v>139</v>
@@ -2657,39 +2645,39 @@
         <v>141</v>
       </c>
       <c r="BT1" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BU1" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="BV1" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="BW1" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="BW1" s="13" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:75">
       <c r="A2">
         <v>1707</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="B2" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="F2" t="s">
         <v>338</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>339</v>
-      </c>
-      <c r="G2" t="s">
-        <v>340</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -2697,14 +2685,14 @@
       <c r="I2">
         <v>2000</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="L2" s="43" t="s">
         <v>371</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="L2" s="45" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2800,10 +2788,10 @@
         <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>103</v>
@@ -2815,16 +2803,16 @@
         <v>105</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>107</v>
@@ -2836,16 +2824,16 @@
         <v>109</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>345</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>346</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>111</v>
@@ -2857,16 +2845,16 @@
         <v>113</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V1" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>354</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>355</v>
       </c>
       <c r="Y1" s="13" t="s">
         <v>115</v>
@@ -2878,16 +2866,16 @@
         <v>117</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC1" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD1" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>357</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>358</v>
       </c>
       <c r="AF1" s="13" t="s">
         <v>119</v>
@@ -2899,16 +2887,16 @@
         <v>121</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AJ1" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK1" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>360</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>361</v>
       </c>
       <c r="AM1" s="13" t="s">
         <v>123</v>
@@ -2920,16 +2908,16 @@
         <v>125</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AQ1" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AR1" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
         <v>363</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>364</v>
       </c>
       <c r="AT1" s="13" t="s">
         <v>127</v>
@@ -2941,16 +2929,16 @@
         <v>129</v>
       </c>
       <c r="AW1" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AX1" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="AY1" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>366</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>367</v>
       </c>
       <c r="BA1" s="13" t="s">
         <v>131</v>
@@ -2962,16 +2950,16 @@
         <v>133</v>
       </c>
       <c r="BD1" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BE1" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="BF1" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="BF1" s="13" t="s">
+      <c r="BG1" s="13" t="s">
         <v>369</v>
-      </c>
-      <c r="BG1" s="13" t="s">
-        <v>370</v>
       </c>
       <c r="BH1" s="13" t="s">
         <v>135</v>
@@ -2983,16 +2971,16 @@
         <v>137</v>
       </c>
       <c r="BK1" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BL1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="BM1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BN1" s="13" t="s">
         <v>351</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>352</v>
       </c>
       <c r="BO1" s="13" t="s">
         <v>139</v>
@@ -3004,16 +2992,16 @@
         <v>141</v>
       </c>
       <c r="BR1" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BS1" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="BT1" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BU1" s="13" t="s">
         <v>348</v>
-      </c>
-      <c r="BU1" s="13" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:73">
@@ -3032,11 +3020,11 @@
       <c r="A3" s="14">
         <v>1307</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>321</v>
+      <c r="B3" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>320</v>
       </c>
       <c r="D3" t="s">
         <v>144</v>
@@ -3067,17 +3055,17 @@
       <c r="A4">
         <v>1707</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="D4" t="s">
         <v>338</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>339</v>
-      </c>
-      <c r="E4" t="s">
-        <v>340</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3085,14 +3073,14 @@
       <c r="G4">
         <v>2000</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="J4" s="43" t="s">
         <v>371</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3115,13 +3103,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="46" t="s">
-        <v>334</v>
+      <c r="A2" s="44" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3144,13 +3132,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="46" t="s">
-        <v>334</v>
+      <c r="A2" s="44" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3392,27 +3380,27 @@
     </row>
     <row r="2" spans="1:46">
       <c r="A2" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:46">
       <c r="A3" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:46">
       <c r="A4" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:46">
       <c r="A5" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -3422,30 +3410,30 @@
     </row>
     <row r="8" spans="1:46">
       <c r="A8" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:46">
       <c r="A10" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:46">
       <c r="A11" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3487,7 +3475,7 @@
         <v>1284</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G1" s="26">
         <v>1263</v>
@@ -3516,28 +3504,28 @@
         <v>184</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3551,28 +3539,28 @@
         <v>186</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3586,28 +3574,28 @@
         <v>189</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3621,28 +3609,28 @@
         <v>191</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3656,28 +3644,28 @@
         <v>193</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3691,28 +3679,28 @@
         <v>196</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3726,28 +3714,28 @@
         <v>199</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3761,28 +3749,28 @@
         <v>202</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3796,28 +3784,28 @@
         <v>205</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
@@ -3831,28 +3819,28 @@
         <v>101</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3964,12 +3952,12 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3991,92 +3979,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" style="34" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="30">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="30">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="31" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="31" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4139,7 +4127,7 @@
         <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>103</v>
@@ -4288,12 +4276,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4361,7 +4349,7 @@
         <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>207</v>
@@ -4516,7 +4504,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4590,23 +4578,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="46" t="s">
-        <v>239</v>
+      <c r="A2" s="44" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="46" t="s">
-        <v>238</v>
+      <c r="A4" s="44" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4616,6 +4604,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BF89F52BC52D9844A146207839183849" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aeefbe4ea6f9147130b7e91bb765e7bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="685ce2a4-4455-466c-aa76-63e1d1928dc9" xmlns:ns3="b437d513-bcd3-4295-b540-77b94a32e6f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60527f9dafc4da954eac34746def061" ns2:_="" ns3:_="">
     <xsd:import namespace="685ce2a4-4455-466c-aa76-63e1d1928dc9"/>
@@ -4812,22 +4815,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE4E168-4980-4C4F-A715-DD86E584F4E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB9CE11-A504-467A-B4F8-5483A2C56B00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{770AA862-8C95-461E-8F5A-0CF9ACE5EB2E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4844,21 +4849,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB9CE11-A504-467A-B4F8-5483A2C56B00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE4E168-4980-4C4F-A715-DD86E584F4E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WppRegPack/TestResource/SysTest/DS_IND_SYSTEST.xlsx
+++ b/WppRegPack/TestResource/SysTest/DS_IND_SYSTEST.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegPack\TestResource\SysTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\674087\Documents\GlobalScript\GlobalTestPack\WppRegpack\TestResource\SysTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="373">
   <si>
     <t>Description</t>
   </si>
@@ -1159,18 +1159,6 @@
   </si>
   <si>
     <t>33</t>
-  </si>
-  <si>
-    <t>JIRA Opco Name</t>
-  </si>
-  <si>
-    <t>JIRA TestCase ID</t>
-  </si>
-  <si>
-    <t>CH1-149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ogilvy - 1285 - Ogilvy Fashion and Lifestyle SH </t>
   </si>
   <si>
     <t>1707106968</t>
@@ -1780,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2377,321 +2365,308 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW2"/>
+  <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:73">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>373</v>
+        <v>212</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>105</v>
+        <v>340</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>341</v>
+        <v>107</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>108</v>
+        <v>323</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>109</v>
+        <v>343</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>344</v>
+        <v>111</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>112</v>
+        <v>324</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>113</v>
+        <v>352</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="X1" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>353</v>
+        <v>115</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>354</v>
+        <v>116</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>116</v>
+        <v>325</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>117</v>
+        <v>355</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF1" s="13" t="s">
-        <v>356</v>
+        <v>119</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>357</v>
+        <v>120</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>120</v>
+        <v>326</v>
       </c>
       <c r="AJ1" s="13" t="s">
-        <v>121</v>
+        <v>358</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="AL1" s="13" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>359</v>
+        <v>123</v>
       </c>
       <c r="AN1" s="13" t="s">
-        <v>360</v>
+        <v>124</v>
       </c>
       <c r="AO1" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AP1" s="13" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="AQ1" s="13" t="s">
-        <v>125</v>
+        <v>361</v>
       </c>
       <c r="AR1" s="13" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="AS1" s="13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AT1" s="13" t="s">
-        <v>362</v>
+        <v>127</v>
       </c>
       <c r="AU1" s="13" t="s">
-        <v>363</v>
+        <v>128</v>
       </c>
       <c r="AV1" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AW1" s="13" t="s">
-        <v>128</v>
+        <v>328</v>
       </c>
       <c r="AX1" s="13" t="s">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AZ1" s="13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="BA1" s="13" t="s">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="BB1" s="13" t="s">
-        <v>366</v>
+        <v>132</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BD1" s="13" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="BF1" s="13" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>368</v>
+        <v>135</v>
       </c>
       <c r="BI1" s="13" t="s">
-        <v>369</v>
+        <v>136</v>
       </c>
       <c r="BJ1" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BK1" s="13" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="BL1" s="13" t="s">
-        <v>137</v>
+        <v>349</v>
       </c>
       <c r="BM1" s="13" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="BN1" s="13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="BO1" s="13" t="s">
-        <v>350</v>
+        <v>139</v>
       </c>
       <c r="BP1" s="13" t="s">
-        <v>351</v>
+        <v>140</v>
       </c>
       <c r="BQ1" s="13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="BR1" s="13" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="BS1" s="13" t="s">
-        <v>141</v>
+        <v>346</v>
       </c>
       <c r="BT1" s="13" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="BU1" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="BV1" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="BW1" s="13" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:73">
       <c r="A2">
         <v>1707</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="E2" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" t="s">
         <v>338</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
         <v>339</v>
       </c>
-      <c r="H2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="G2">
         <v>2000</v>
       </c>
+      <c r="H2" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>370</v>
+      </c>
       <c r="J2" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="K2" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="L2" s="43" t="s">
         <v>371</v>
       </c>
     </row>
@@ -3433,7 +3408,7 @@
         <v>333</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -4604,18 +4579,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4816,18 +4791,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE4E168-4980-4C4F-A715-DD86E584F4E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB9CE11-A504-467A-B4F8-5483A2C56B00}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB9CE11-A504-467A-B4F8-5483A2C56B00}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAE4E168-4980-4C4F-A715-DD86E584F4E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
